--- a/data/pca/factorExposure/factorExposure_2012-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-07.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01965745291539198</v>
+        <v>-0.01939328277392913</v>
       </c>
       <c r="C2">
-        <v>-0.03453648251472274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02702150375073272</v>
+      </c>
+      <c r="D2">
+        <v>0.004036291792463951</v>
+      </c>
+      <c r="E2">
+        <v>-0.02225173343386037</v>
+      </c>
+      <c r="F2">
+        <v>0.009855431902803134</v>
+      </c>
+      <c r="G2">
+        <v>0.01167704801292684</v>
+      </c>
+      <c r="H2">
+        <v>0.04895778763715774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07502179764325001</v>
+        <v>-0.08349881372786842</v>
       </c>
       <c r="C4">
-        <v>-0.05824530400344365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0377320472146141</v>
+      </c>
+      <c r="D4">
+        <v>-0.0699446736389335</v>
+      </c>
+      <c r="E4">
+        <v>-0.001098490694606813</v>
+      </c>
+      <c r="F4">
+        <v>0.03100437094422616</v>
+      </c>
+      <c r="G4">
+        <v>0.001559190930565385</v>
+      </c>
+      <c r="H4">
+        <v>-0.03832769442281547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1045152836070666</v>
+        <v>-0.1195757631228651</v>
       </c>
       <c r="C6">
-        <v>-0.05802364386626979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03583783486948193</v>
+      </c>
+      <c r="D6">
+        <v>-0.009786776074784181</v>
+      </c>
+      <c r="E6">
+        <v>0.005205627006790413</v>
+      </c>
+      <c r="F6">
+        <v>0.05852398994696916</v>
+      </c>
+      <c r="G6">
+        <v>0.01405820781183989</v>
+      </c>
+      <c r="H6">
+        <v>0.06658844559867054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04925522161686607</v>
+        <v>-0.06070519029946025</v>
       </c>
       <c r="C7">
-        <v>-0.02815482365806596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01895717326270871</v>
+      </c>
+      <c r="D7">
+        <v>-0.04291377687206663</v>
+      </c>
+      <c r="E7">
+        <v>-0.0215905366109213</v>
+      </c>
+      <c r="F7">
+        <v>0.03781747969151672</v>
+      </c>
+      <c r="G7">
+        <v>-0.03810977048548249</v>
+      </c>
+      <c r="H7">
+        <v>-0.02144223344828475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03654082554057613</v>
+        <v>-0.03904119039638627</v>
       </c>
       <c r="C8">
-        <v>-0.01764812634822127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.008621925045021864</v>
+      </c>
+      <c r="D8">
+        <v>-0.03367031728086005</v>
+      </c>
+      <c r="E8">
+        <v>-0.009650566419030244</v>
+      </c>
+      <c r="F8">
+        <v>0.04326903323309043</v>
+      </c>
+      <c r="G8">
+        <v>0.03315307394321033</v>
+      </c>
+      <c r="H8">
+        <v>0.008136522963308966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06836165002083618</v>
+        <v>-0.07591917377036796</v>
       </c>
       <c r="C9">
-        <v>-0.0460016490214007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02684296034680608</v>
+      </c>
+      <c r="D9">
+        <v>-0.06379661278958927</v>
+      </c>
+      <c r="E9">
+        <v>-0.02155891453522148</v>
+      </c>
+      <c r="F9">
+        <v>0.04014450817036132</v>
+      </c>
+      <c r="G9">
+        <v>0.005561698923881892</v>
+      </c>
+      <c r="H9">
+        <v>-0.05552347504845761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02932028082318292</v>
+        <v>-0.03614254917964828</v>
       </c>
       <c r="C10">
-        <v>-0.03488548011725521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03925580642572166</v>
+      </c>
+      <c r="D10">
+        <v>0.1708933058633269</v>
+      </c>
+      <c r="E10">
+        <v>-0.04296060736533224</v>
+      </c>
+      <c r="F10">
+        <v>0.04372560690802565</v>
+      </c>
+      <c r="G10">
+        <v>-0.04168029866402745</v>
+      </c>
+      <c r="H10">
+        <v>0.04143214730236552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06993538672021056</v>
+        <v>-0.07470870486802893</v>
       </c>
       <c r="C11">
-        <v>-0.04888934778610773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02806871148875593</v>
+      </c>
+      <c r="D11">
+        <v>-0.06255729530246984</v>
+      </c>
+      <c r="E11">
+        <v>0.01260442483484845</v>
+      </c>
+      <c r="F11">
+        <v>0.02631383753488265</v>
+      </c>
+      <c r="G11">
+        <v>-0.003555746383304751</v>
+      </c>
+      <c r="H11">
+        <v>-0.0876335520703929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05683401233579292</v>
+        <v>-0.06427644774540725</v>
       </c>
       <c r="C12">
-        <v>-0.05045741180514459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03448294381840752</v>
+      </c>
+      <c r="D12">
+        <v>-0.04576726042853446</v>
+      </c>
+      <c r="E12">
+        <v>-0.007999512626577695</v>
+      </c>
+      <c r="F12">
+        <v>0.02009465091361173</v>
+      </c>
+      <c r="G12">
+        <v>0.002202016608099545</v>
+      </c>
+      <c r="H12">
+        <v>-0.05440122524322166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06151067573724675</v>
+        <v>-0.06461266434359535</v>
       </c>
       <c r="C13">
-        <v>-0.04380670880393375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02551738232250174</v>
+      </c>
+      <c r="D13">
+        <v>-0.0393111622450316</v>
+      </c>
+      <c r="E13">
+        <v>-0.0005583184068353643</v>
+      </c>
+      <c r="F13">
+        <v>0.002254165435585439</v>
+      </c>
+      <c r="G13">
+        <v>-0.001100041527837441</v>
+      </c>
+      <c r="H13">
+        <v>-0.05626240276888224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0318331380212957</v>
+        <v>-0.04090756508722429</v>
       </c>
       <c r="C14">
-        <v>-0.03188699751404182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0262400960941438</v>
+      </c>
+      <c r="D14">
+        <v>-0.006214992718943773</v>
+      </c>
+      <c r="E14">
+        <v>-0.02295957548697939</v>
+      </c>
+      <c r="F14">
+        <v>0.01749283720471592</v>
+      </c>
+      <c r="G14">
+        <v>0.0142930605026211</v>
+      </c>
+      <c r="H14">
+        <v>-0.05897591446731996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03852017115752817</v>
+        <v>-0.03941003940627207</v>
       </c>
       <c r="C15">
-        <v>-0.01035405585873432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002279572852614299</v>
+      </c>
+      <c r="D15">
+        <v>-0.005526200027561472</v>
+      </c>
+      <c r="E15">
+        <v>-0.04088525499509195</v>
+      </c>
+      <c r="F15">
+        <v>0.00201910619838763</v>
+      </c>
+      <c r="G15">
+        <v>0.02589013340948053</v>
+      </c>
+      <c r="H15">
+        <v>-0.05122963054046941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05936468919482033</v>
+        <v>-0.0668346410026531</v>
       </c>
       <c r="C16">
-        <v>-0.04251738747438496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02708708288630816</v>
+      </c>
+      <c r="D16">
+        <v>-0.06143739898233172</v>
+      </c>
+      <c r="E16">
+        <v>-0.0007706329044160313</v>
+      </c>
+      <c r="F16">
+        <v>0.02518169172112206</v>
+      </c>
+      <c r="G16">
+        <v>-0.001220359303291392</v>
+      </c>
+      <c r="H16">
+        <v>-0.05404565604162365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06423334705211232</v>
+        <v>-0.06311646058837005</v>
       </c>
       <c r="C20">
-        <v>-0.03400034362815678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01376683012410554</v>
+      </c>
+      <c r="D20">
+        <v>-0.05021561101891765</v>
+      </c>
+      <c r="E20">
+        <v>-0.01727068514367917</v>
+      </c>
+      <c r="F20">
+        <v>0.02431125338139865</v>
+      </c>
+      <c r="G20">
+        <v>0.001677209918811133</v>
+      </c>
+      <c r="H20">
+        <v>-0.05510884389316422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02375991543870502</v>
+        <v>-0.0242879478516657</v>
       </c>
       <c r="C21">
-        <v>-0.0004933839658259789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.00768420789610766</v>
+      </c>
+      <c r="D21">
+        <v>-0.03737861893915959</v>
+      </c>
+      <c r="E21">
+        <v>-0.07611910602062372</v>
+      </c>
+      <c r="F21">
+        <v>-0.01133522751397685</v>
+      </c>
+      <c r="G21">
+        <v>0.004687597093760653</v>
+      </c>
+      <c r="H21">
+        <v>0.03541039527580832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07404654440723922</v>
+        <v>-0.06687329422579488</v>
       </c>
       <c r="C22">
-        <v>-0.06108417042289584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03397368261755197</v>
+      </c>
+      <c r="D22">
+        <v>-0.09749978662805955</v>
+      </c>
+      <c r="E22">
+        <v>-0.6142112735856871</v>
+      </c>
+      <c r="F22">
+        <v>-0.1226282353987396</v>
+      </c>
+      <c r="G22">
+        <v>-0.0341592404460339</v>
+      </c>
+      <c r="H22">
+        <v>0.1418066636066416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07502651089592055</v>
+        <v>-0.06748272489145139</v>
       </c>
       <c r="C23">
-        <v>-0.06011248045955656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03279547090209055</v>
+      </c>
+      <c r="D23">
+        <v>-0.09825161438655081</v>
+      </c>
+      <c r="E23">
+        <v>-0.6133085722831699</v>
+      </c>
+      <c r="F23">
+        <v>-0.1218016756330861</v>
+      </c>
+      <c r="G23">
+        <v>-0.03257630497239528</v>
+      </c>
+      <c r="H23">
+        <v>0.1370141636598074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06872021228214888</v>
+        <v>-0.07670628000567693</v>
       </c>
       <c r="C24">
-        <v>-0.05091729321314682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03204865605615261</v>
+      </c>
+      <c r="D24">
+        <v>-0.05973273407279808</v>
+      </c>
+      <c r="E24">
+        <v>-0.008734878711204487</v>
+      </c>
+      <c r="F24">
+        <v>0.03522933664691098</v>
+      </c>
+      <c r="G24">
+        <v>0.00792120547814283</v>
+      </c>
+      <c r="H24">
+        <v>-0.06526741403472995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06971688116600455</v>
+        <v>-0.07478020628551542</v>
       </c>
       <c r="C25">
-        <v>-0.05663453274011162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03623349277955816</v>
+      </c>
+      <c r="D25">
+        <v>-0.05553757928746367</v>
+      </c>
+      <c r="E25">
+        <v>-0.01061725173547332</v>
+      </c>
+      <c r="F25">
+        <v>0.02986004523631261</v>
+      </c>
+      <c r="G25">
+        <v>0.02080202376088343</v>
+      </c>
+      <c r="H25">
+        <v>-0.07102153582584998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04185349350706814</v>
+        <v>-0.04538037976242304</v>
       </c>
       <c r="C26">
-        <v>-0.01006069360793688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001468988710500499</v>
+      </c>
+      <c r="D26">
+        <v>-0.02650790209017618</v>
+      </c>
+      <c r="E26">
+        <v>-0.0370472646355917</v>
+      </c>
+      <c r="F26">
+        <v>0.02579802763515431</v>
+      </c>
+      <c r="G26">
+        <v>-0.003854321443231653</v>
+      </c>
+      <c r="H26">
+        <v>-0.06326895036872286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05811265672966496</v>
+        <v>-0.07218521511213928</v>
       </c>
       <c r="C28">
-        <v>-0.07339093540436244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0781788929908713</v>
+      </c>
+      <c r="D28">
+        <v>0.3136979439754574</v>
+      </c>
+      <c r="E28">
+        <v>-0.03408616109982983</v>
+      </c>
+      <c r="F28">
+        <v>0.05808714813865645</v>
+      </c>
+      <c r="G28">
+        <v>0.02443453640505035</v>
+      </c>
+      <c r="H28">
+        <v>0.004948693243066236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0399534908609423</v>
+        <v>-0.04681175598875508</v>
       </c>
       <c r="C29">
-        <v>-0.03019920792827767</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.022866020319964</v>
+      </c>
+      <c r="D29">
+        <v>-0.007302678384086578</v>
+      </c>
+      <c r="E29">
+        <v>-0.04480695531994185</v>
+      </c>
+      <c r="F29">
+        <v>0.009656740304838179</v>
+      </c>
+      <c r="G29">
+        <v>-0.003656449503678147</v>
+      </c>
+      <c r="H29">
+        <v>-0.09138936138416724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1232931273825661</v>
+        <v>-0.1326558152765633</v>
       </c>
       <c r="C30">
-        <v>-0.09226273531670863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0559064457630935</v>
+      </c>
+      <c r="D30">
+        <v>-0.08586626423199413</v>
+      </c>
+      <c r="E30">
+        <v>-0.04270061959060179</v>
+      </c>
+      <c r="F30">
+        <v>0.006402538949255175</v>
+      </c>
+      <c r="G30">
+        <v>0.03979045884466051</v>
+      </c>
+      <c r="H30">
+        <v>0.02383773517605104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04113307524903607</v>
+        <v>-0.04593549838139716</v>
       </c>
       <c r="C31">
-        <v>-0.01905933745897192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.009512933997754273</v>
+      </c>
+      <c r="D31">
+        <v>-0.02394258769515005</v>
+      </c>
+      <c r="E31">
+        <v>-0.02396395187777046</v>
+      </c>
+      <c r="F31">
+        <v>0.01403189535339427</v>
+      </c>
+      <c r="G31">
+        <v>-0.01670397757693853</v>
+      </c>
+      <c r="H31">
+        <v>-0.07553827922875379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0346545180378741</v>
+        <v>-0.03480955914012694</v>
       </c>
       <c r="C32">
-        <v>-0.02262445768904481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01350017349227511</v>
+      </c>
+      <c r="D32">
+        <v>-0.01801566747957711</v>
+      </c>
+      <c r="E32">
+        <v>-0.06823224777881436</v>
+      </c>
+      <c r="F32">
+        <v>0.002579554171325466</v>
+      </c>
+      <c r="G32">
+        <v>0.03097000939849575</v>
+      </c>
+      <c r="H32">
+        <v>-0.04317389920145368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07899866412141188</v>
+        <v>-0.09433388994839524</v>
       </c>
       <c r="C33">
-        <v>-0.04209607984665001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02484946623177131</v>
+      </c>
+      <c r="D33">
+        <v>-0.05600419699907234</v>
+      </c>
+      <c r="E33">
+        <v>-0.01620387884793039</v>
+      </c>
+      <c r="F33">
+        <v>0.008945209334377277</v>
+      </c>
+      <c r="G33">
+        <v>-0.01135630717501787</v>
+      </c>
+      <c r="H33">
+        <v>-0.07166408161997731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05539719873254651</v>
+        <v>-0.05886579143013005</v>
       </c>
       <c r="C34">
-        <v>-0.03213814079705833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01550044305689988</v>
+      </c>
+      <c r="D34">
+        <v>-0.05635347023295376</v>
+      </c>
+      <c r="E34">
+        <v>-0.001880370201031408</v>
+      </c>
+      <c r="F34">
+        <v>0.01683975481265945</v>
+      </c>
+      <c r="G34">
+        <v>0.008411824979646461</v>
+      </c>
+      <c r="H34">
+        <v>-0.05231397767905403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03733630392216049</v>
+        <v>-0.04063659316642191</v>
       </c>
       <c r="C35">
-        <v>-0.01136434057148429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003181495206157905</v>
+      </c>
+      <c r="D35">
+        <v>-0.01019450891818019</v>
+      </c>
+      <c r="E35">
+        <v>-0.02185906857473006</v>
+      </c>
+      <c r="F35">
+        <v>-0.005356517847703609</v>
+      </c>
+      <c r="G35">
+        <v>-0.01061359241425503</v>
+      </c>
+      <c r="H35">
+        <v>-0.03727245619117443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01939968714865165</v>
+        <v>-0.02516762410892906</v>
       </c>
       <c r="C36">
-        <v>-0.01552484610510859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01113776703961325</v>
+      </c>
+      <c r="D36">
+        <v>-0.01750184842664234</v>
+      </c>
+      <c r="E36">
+        <v>-0.03817554186652281</v>
+      </c>
+      <c r="F36">
+        <v>0.020431101116492</v>
+      </c>
+      <c r="G36">
+        <v>-0.00894339566974147</v>
+      </c>
+      <c r="H36">
+        <v>-0.05494812528193152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03869118841968539</v>
+        <v>-0.04167306422354525</v>
       </c>
       <c r="C38">
-        <v>-0.00417548227112212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003110469760366837</v>
+      </c>
+      <c r="D38">
+        <v>-0.01951829728982377</v>
+      </c>
+      <c r="E38">
+        <v>-0.05788557800735749</v>
+      </c>
+      <c r="F38">
+        <v>-0.005774943504167786</v>
+      </c>
+      <c r="G38">
+        <v>0.01952576259971929</v>
+      </c>
+      <c r="H38">
+        <v>-0.02538359179049685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09189130686751887</v>
+        <v>-0.103015332115323</v>
       </c>
       <c r="C39">
-        <v>-0.0768229698158714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05050768191113079</v>
+      </c>
+      <c r="D39">
+        <v>-0.07210499215148039</v>
+      </c>
+      <c r="E39">
+        <v>0.01406116801837864</v>
+      </c>
+      <c r="F39">
+        <v>0.01132850362622243</v>
+      </c>
+      <c r="G39">
+        <v>0.02713484054696427</v>
+      </c>
+      <c r="H39">
+        <v>-0.05236853593538641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07392466163504816</v>
+        <v>-0.072442974053453</v>
       </c>
       <c r="C40">
-        <v>-0.04602809302987948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.02353420933298392</v>
+      </c>
+      <c r="D40">
+        <v>-0.003930561694966675</v>
+      </c>
+      <c r="E40">
+        <v>-0.02132031809155654</v>
+      </c>
+      <c r="F40">
+        <v>-0.05103367411084965</v>
+      </c>
+      <c r="G40">
+        <v>0.06254527715456849</v>
+      </c>
+      <c r="H40">
+        <v>0.08481613069358715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03992305835250962</v>
+        <v>-0.04217363309108088</v>
       </c>
       <c r="C41">
-        <v>-0.007785961902164901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0005700683230120001</v>
+      </c>
+      <c r="D41">
+        <v>-0.0391551609353762</v>
+      </c>
+      <c r="E41">
+        <v>-0.007190767704587708</v>
+      </c>
+      <c r="F41">
+        <v>-0.0105440644867043</v>
+      </c>
+      <c r="G41">
+        <v>0.01345731703675996</v>
+      </c>
+      <c r="H41">
+        <v>-0.03353535438129526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04579406450490346</v>
+        <v>-0.05399039086315768</v>
       </c>
       <c r="C43">
-        <v>-0.02590929598937551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01586934187434181</v>
+      </c>
+      <c r="D43">
+        <v>-0.02686288527163699</v>
+      </c>
+      <c r="E43">
+        <v>-0.01735698875628013</v>
+      </c>
+      <c r="F43">
+        <v>0.009973732459407423</v>
+      </c>
+      <c r="G43">
+        <v>-0.005398364067649776</v>
+      </c>
+      <c r="H43">
+        <v>-0.04909120471425375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09440143713331221</v>
+        <v>-0.09204121215767125</v>
       </c>
       <c r="C44">
-        <v>-0.09768230002417899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0645009657957278</v>
+      </c>
+      <c r="D44">
+        <v>-0.06358604588401386</v>
+      </c>
+      <c r="E44">
+        <v>-0.09418373838981503</v>
+      </c>
+      <c r="F44">
+        <v>0.04633895283709258</v>
+      </c>
+      <c r="G44">
+        <v>0.03746451267720278</v>
+      </c>
+      <c r="H44">
+        <v>0.006847956441733357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0244068429334032</v>
+        <v>-0.0306259635873624</v>
       </c>
       <c r="C46">
-        <v>-0.0142924973911866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009331868147147803</v>
+      </c>
+      <c r="D46">
+        <v>-0.03368653970417527</v>
+      </c>
+      <c r="E46">
+        <v>-0.01936669747186005</v>
+      </c>
+      <c r="F46">
+        <v>0.02123473230163121</v>
+      </c>
+      <c r="G46">
+        <v>0.00502592714467472</v>
+      </c>
+      <c r="H46">
+        <v>-0.0371481297631318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0264773254292469</v>
+        <v>-0.03208553516555655</v>
       </c>
       <c r="C47">
-        <v>-0.02132598699775874</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01442761560297074</v>
+      </c>
+      <c r="D47">
+        <v>-0.01855885358167965</v>
+      </c>
+      <c r="E47">
+        <v>-0.04829043153913007</v>
+      </c>
+      <c r="F47">
+        <v>0.01710399361155299</v>
+      </c>
+      <c r="G47">
+        <v>-0.03725757212154977</v>
+      </c>
+      <c r="H47">
+        <v>-0.02775524947253498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03058684637833034</v>
+        <v>-0.03551679326906927</v>
       </c>
       <c r="C48">
-        <v>-0.01870812029841076</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01056444540127659</v>
+      </c>
+      <c r="D48">
+        <v>-0.02833143790598841</v>
+      </c>
+      <c r="E48">
+        <v>-0.04093004916134691</v>
+      </c>
+      <c r="F48">
+        <v>0.008528514655876757</v>
+      </c>
+      <c r="G48">
+        <v>0.01177439668357378</v>
+      </c>
+      <c r="H48">
+        <v>-0.0604492080021975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.162305532947935</v>
+        <v>-0.1918967244388184</v>
       </c>
       <c r="C49">
-        <v>-0.07701424605722186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.04530934537462596</v>
+      </c>
+      <c r="D49">
+        <v>-0.01738946201775066</v>
+      </c>
+      <c r="E49">
+        <v>0.1286950961928854</v>
+      </c>
+      <c r="F49">
+        <v>0.03896866889809411</v>
+      </c>
+      <c r="G49">
+        <v>-0.06541834663774922</v>
+      </c>
+      <c r="H49">
+        <v>0.2451470920235606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03697232741727967</v>
+        <v>-0.04496642274057942</v>
       </c>
       <c r="C50">
-        <v>-0.02385887822957038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01685062628569345</v>
+      </c>
+      <c r="D50">
+        <v>-0.03602822887579786</v>
+      </c>
+      <c r="E50">
+        <v>-0.04805333597023338</v>
+      </c>
+      <c r="F50">
+        <v>0.02297753450246457</v>
+      </c>
+      <c r="G50">
+        <v>-0.01233222604622534</v>
+      </c>
+      <c r="H50">
+        <v>-0.07248706209817395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02557969156264992</v>
+        <v>-0.0258468423870532</v>
       </c>
       <c r="C51">
-        <v>-0.01049346499851081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.00468476124367407</v>
+      </c>
+      <c r="D51">
+        <v>-0.02358159708855242</v>
+      </c>
+      <c r="E51">
+        <v>-0.01349846443987209</v>
+      </c>
+      <c r="F51">
+        <v>0.01144062676938442</v>
+      </c>
+      <c r="G51">
+        <v>0.001481163239925393</v>
+      </c>
+      <c r="H51">
+        <v>-0.001364946123836484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1467384954813097</v>
+        <v>-0.1623741466724172</v>
       </c>
       <c r="C53">
-        <v>-0.08307599567998925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05413062707108286</v>
+      </c>
+      <c r="D53">
+        <v>-0.01973894802654198</v>
+      </c>
+      <c r="E53">
+        <v>0.03558183407369752</v>
+      </c>
+      <c r="F53">
+        <v>0.01429877595433925</v>
+      </c>
+      <c r="G53">
+        <v>0.001745982362469625</v>
+      </c>
+      <c r="H53">
+        <v>-0.1541647802303877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05436159383383021</v>
+        <v>-0.0562468140488986</v>
       </c>
       <c r="C54">
-        <v>-0.02532046421820476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.0119236437368052</v>
+      </c>
+      <c r="D54">
+        <v>-0.02188223581421073</v>
+      </c>
+      <c r="E54">
+        <v>-0.04972852162182103</v>
+      </c>
+      <c r="F54">
+        <v>0.01383393797261642</v>
+      </c>
+      <c r="G54">
+        <v>0.01741802741194864</v>
+      </c>
+      <c r="H54">
+        <v>-0.06397765661372727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09703088174702094</v>
+        <v>-0.1021271102348687</v>
       </c>
       <c r="C55">
-        <v>-0.05741428785528212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03598529467208386</v>
+      </c>
+      <c r="D55">
+        <v>-0.0255364758285901</v>
+      </c>
+      <c r="E55">
+        <v>-0.009394099693532911</v>
+      </c>
+      <c r="F55">
+        <v>0.0168839037144933</v>
+      </c>
+      <c r="G55">
+        <v>0.01203545228790763</v>
+      </c>
+      <c r="H55">
+        <v>-0.1427747716801078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1451637788325115</v>
+        <v>-0.1621399801877815</v>
       </c>
       <c r="C56">
-        <v>-0.097869392802108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06630365251404302</v>
+      </c>
+      <c r="D56">
+        <v>-0.01945196947038844</v>
+      </c>
+      <c r="E56">
+        <v>0.0365239850444045</v>
+      </c>
+      <c r="F56">
+        <v>0.032856518552232</v>
+      </c>
+      <c r="G56">
+        <v>-0.00774062950248176</v>
+      </c>
+      <c r="H56">
+        <v>-0.1610459924668085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1217659918550557</v>
+        <v>-0.09830164952379364</v>
       </c>
       <c r="C58">
-        <v>-0.008545369244894616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03265709992778087</v>
+      </c>
+      <c r="D58">
+        <v>-0.04913326835876254</v>
+      </c>
+      <c r="E58">
+        <v>-0.1794638509081139</v>
+      </c>
+      <c r="F58">
+        <v>0.02136941263170164</v>
+      </c>
+      <c r="G58">
+        <v>-0.04458917986165414</v>
+      </c>
+      <c r="H58">
+        <v>0.1641662012102968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1153670111372546</v>
+        <v>-0.1425094278276386</v>
       </c>
       <c r="C59">
-        <v>-0.07869920217391904</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08170976668734735</v>
+      </c>
+      <c r="D59">
+        <v>0.3607408789056269</v>
+      </c>
+      <c r="E59">
+        <v>-0.04466523933834636</v>
+      </c>
+      <c r="F59">
+        <v>0.007371998022614072</v>
+      </c>
+      <c r="G59">
+        <v>-0.04268533876804613</v>
+      </c>
+      <c r="H59">
+        <v>0.002973024321619296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1974327119144463</v>
+        <v>-0.2282717533685319</v>
       </c>
       <c r="C60">
-        <v>-0.1049492710920032</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06758409143557641</v>
+      </c>
+      <c r="D60">
+        <v>-0.02560961485876092</v>
+      </c>
+      <c r="E60">
+        <v>0.07075492670674789</v>
+      </c>
+      <c r="F60">
+        <v>0.04731712149125545</v>
+      </c>
+      <c r="G60">
+        <v>0.01623053571570525</v>
+      </c>
+      <c r="H60">
+        <v>0.1561570133279236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07834982686546725</v>
+        <v>-0.08740322722536834</v>
       </c>
       <c r="C61">
-        <v>-0.05883833734517651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03886053356177097</v>
+      </c>
+      <c r="D61">
+        <v>-0.05311913556127442</v>
+      </c>
+      <c r="E61">
+        <v>0.01529284489363512</v>
+      </c>
+      <c r="F61">
+        <v>0.008348122055542018</v>
+      </c>
+      <c r="G61">
+        <v>-0.005831855022465142</v>
+      </c>
+      <c r="H61">
+        <v>-0.06817594210214382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1255461264720588</v>
+        <v>-0.1413406386814401</v>
       </c>
       <c r="C62">
-        <v>-0.07294289930004706</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04700301399500974</v>
+      </c>
+      <c r="D62">
+        <v>-0.02371234375447886</v>
+      </c>
+      <c r="E62">
+        <v>0.05305777850816623</v>
+      </c>
+      <c r="F62">
+        <v>0.006903388805344593</v>
+      </c>
+      <c r="G62">
+        <v>0.03650528042760581</v>
+      </c>
+      <c r="H62">
+        <v>-0.1531124452389813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05366334165940275</v>
+        <v>-0.05224655728002141</v>
       </c>
       <c r="C63">
-        <v>-0.02905121683040364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01421346697476659</v>
+      </c>
+      <c r="D63">
+        <v>-0.02610310397150738</v>
+      </c>
+      <c r="E63">
+        <v>-0.05064840804262292</v>
+      </c>
+      <c r="F63">
+        <v>0.005529012409399543</v>
+      </c>
+      <c r="G63">
+        <v>0.03850373326977568</v>
+      </c>
+      <c r="H63">
+        <v>-0.07943025456748784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1103238144767772</v>
+        <v>-0.1137004832197726</v>
       </c>
       <c r="C64">
-        <v>-0.03101540759329459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.00525223417571553</v>
+      </c>
+      <c r="D64">
+        <v>-0.04325327310576683</v>
+      </c>
+      <c r="E64">
+        <v>-0.02557385924876576</v>
+      </c>
+      <c r="F64">
+        <v>0.05041913617481011</v>
+      </c>
+      <c r="G64">
+        <v>0.03360224376820011</v>
+      </c>
+      <c r="H64">
+        <v>-0.07700052271021096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.118642836162025</v>
+        <v>-0.1283028552892267</v>
       </c>
       <c r="C65">
-        <v>-0.05845985374542671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0349141675794533</v>
+      </c>
+      <c r="D65">
+        <v>-0.001412444052951466</v>
+      </c>
+      <c r="E65">
+        <v>-0.0007656582843366099</v>
+      </c>
+      <c r="F65">
+        <v>0.06526508122034058</v>
+      </c>
+      <c r="G65">
+        <v>0.03580450624637443</v>
+      </c>
+      <c r="H65">
+        <v>0.07654985553354884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1403335205990553</v>
+        <v>-0.1554422352025681</v>
       </c>
       <c r="C66">
-        <v>-0.08249506432298821</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04753723575007057</v>
+      </c>
+      <c r="D66">
+        <v>-0.1112100354568629</v>
+      </c>
+      <c r="E66">
+        <v>0.05022540949982204</v>
+      </c>
+      <c r="F66">
+        <v>0.02234160133853076</v>
+      </c>
+      <c r="G66">
+        <v>0.03301844180220269</v>
+      </c>
+      <c r="H66">
+        <v>-0.1231163884913677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07093885497905922</v>
+        <v>-0.07876262113248111</v>
       </c>
       <c r="C67">
-        <v>-0.01689830771970109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00401378175006903</v>
+      </c>
+      <c r="D67">
+        <v>-0.03108637224348443</v>
+      </c>
+      <c r="E67">
+        <v>-0.02611356339485178</v>
+      </c>
+      <c r="F67">
+        <v>0.01494186119600931</v>
+      </c>
+      <c r="G67">
+        <v>-0.002931546587562587</v>
+      </c>
+      <c r="H67">
+        <v>-0.02215099754297629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05880778958176882</v>
+        <v>-0.06411638738700537</v>
       </c>
       <c r="C68">
-        <v>-0.04705995007701291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04984442717713393</v>
+      </c>
+      <c r="D68">
+        <v>0.2650664114593102</v>
+      </c>
+      <c r="E68">
+        <v>-0.04829095299659814</v>
+      </c>
+      <c r="F68">
+        <v>0.01494889482285528</v>
+      </c>
+      <c r="G68">
+        <v>-0.01418224648235837</v>
+      </c>
+      <c r="H68">
+        <v>-0.0238290394020408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05114786952799227</v>
+        <v>-0.04958170591411146</v>
       </c>
       <c r="C69">
-        <v>-0.02010188697842226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.004458314118451301</v>
+      </c>
+      <c r="D69">
+        <v>-0.02156591308205006</v>
+      </c>
+      <c r="E69">
+        <v>-0.02510801642259735</v>
+      </c>
+      <c r="F69">
+        <v>-0.002546212524340091</v>
+      </c>
+      <c r="G69">
+        <v>-0.01139216403366821</v>
+      </c>
+      <c r="H69">
+        <v>-0.05780310668376353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0051230812444555</v>
+        <v>-0.02210086333063129</v>
       </c>
       <c r="C70">
-        <v>0.003844079602204854</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001523544183543703</v>
+      </c>
+      <c r="D70">
+        <v>-0.001047795578647274</v>
+      </c>
+      <c r="E70">
+        <v>0.02708348515793046</v>
+      </c>
+      <c r="F70">
+        <v>0.01992948744698108</v>
+      </c>
+      <c r="G70">
+        <v>-0.02155088937911958</v>
+      </c>
+      <c r="H70">
+        <v>0.05858174658607519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06012635633202569</v>
+        <v>-0.06783916280345259</v>
       </c>
       <c r="C71">
-        <v>-0.0457249368050178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05075316680223865</v>
+      </c>
+      <c r="D71">
+        <v>0.2938020626080947</v>
+      </c>
+      <c r="E71">
+        <v>-0.04433880201941787</v>
+      </c>
+      <c r="F71">
+        <v>0.04393881231447316</v>
+      </c>
+      <c r="G71">
+        <v>-0.006091298518309698</v>
+      </c>
+      <c r="H71">
+        <v>-0.01538840087515888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.138017075561699</v>
+        <v>-0.1541643248956164</v>
       </c>
       <c r="C72">
-        <v>-0.06468492160064648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03755411987076404</v>
+      </c>
+      <c r="D72">
+        <v>0.005222195337453019</v>
+      </c>
+      <c r="E72">
+        <v>0.08725350468390154</v>
+      </c>
+      <c r="F72">
+        <v>-0.1719887733038498</v>
+      </c>
+      <c r="G72">
+        <v>0.1114328201399774</v>
+      </c>
+      <c r="H72">
+        <v>-0.02029000261579879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.260079568435698</v>
+        <v>-0.2841164420900211</v>
       </c>
       <c r="C73">
-        <v>-0.1240779875280251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.06255131352245277</v>
+      </c>
+      <c r="D73">
+        <v>-0.09495464697468375</v>
+      </c>
+      <c r="E73">
+        <v>0.2008507116586433</v>
+      </c>
+      <c r="F73">
+        <v>0.0799914470737756</v>
+      </c>
+      <c r="G73">
+        <v>-0.2098090177878511</v>
+      </c>
+      <c r="H73">
+        <v>0.5414445595263019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07707594395676708</v>
+        <v>-0.0908350407970089</v>
       </c>
       <c r="C74">
-        <v>-0.07905206959693141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05974945484113453</v>
+      </c>
+      <c r="D74">
+        <v>-0.030312747502263</v>
+      </c>
+      <c r="E74">
+        <v>0.005669369404343874</v>
+      </c>
+      <c r="F74">
+        <v>-0.01205798140355191</v>
+      </c>
+      <c r="G74">
+        <v>-0.03162831944340286</v>
+      </c>
+      <c r="H74">
+        <v>-0.1265445078685264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09460101885852115</v>
+        <v>-0.1023893564884097</v>
       </c>
       <c r="C75">
-        <v>-0.05458791404759571</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02876894585439636</v>
+      </c>
+      <c r="D75">
+        <v>-0.01191712660024253</v>
+      </c>
+      <c r="E75">
+        <v>-0.002405455401271191</v>
+      </c>
+      <c r="F75">
+        <v>0.04420196900021415</v>
+      </c>
+      <c r="G75">
+        <v>-0.01327848098495153</v>
+      </c>
+      <c r="H75">
+        <v>-0.1181497198225826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.125072782368112</v>
+        <v>-0.1382546459675922</v>
       </c>
       <c r="C76">
-        <v>-0.09076580665507673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06031767626649356</v>
+      </c>
+      <c r="D76">
+        <v>-0.05403681723032971</v>
+      </c>
+      <c r="E76">
+        <v>-0.01181838625899291</v>
+      </c>
+      <c r="F76">
+        <v>0.05588820899300909</v>
+      </c>
+      <c r="G76">
+        <v>-0.001268637001820215</v>
+      </c>
+      <c r="H76">
+        <v>-0.1598229574054493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1247809773087328</v>
+        <v>-0.1168106692880728</v>
       </c>
       <c r="C77">
-        <v>-0.03985228566241479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003670484924012221</v>
+      </c>
+      <c r="D77">
+        <v>-0.01936409355186398</v>
+      </c>
+      <c r="E77">
+        <v>0.02294094056323698</v>
+      </c>
+      <c r="F77">
+        <v>0.2060810896436216</v>
+      </c>
+      <c r="G77">
+        <v>0.8765434998978152</v>
+      </c>
+      <c r="H77">
+        <v>0.2031258821662503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09295764799968674</v>
+        <v>-0.1244716280225834</v>
       </c>
       <c r="C78">
-        <v>-0.04403787429271125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03045175984103284</v>
+      </c>
+      <c r="D78">
+        <v>-0.09076718081416818</v>
+      </c>
+      <c r="E78">
+        <v>-0.06135511039655388</v>
+      </c>
+      <c r="F78">
+        <v>0.02000131769398047</v>
+      </c>
+      <c r="G78">
+        <v>0.04037687808940565</v>
+      </c>
+      <c r="H78">
+        <v>0.09678356401711723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1441587183329367</v>
+        <v>-0.1522218715329521</v>
       </c>
       <c r="C79">
-        <v>-0.08810595248478752</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04982732407566042</v>
+      </c>
+      <c r="D79">
+        <v>-0.02709765177282313</v>
+      </c>
+      <c r="E79">
+        <v>0.02041122568652994</v>
+      </c>
+      <c r="F79">
+        <v>0.01224996059676056</v>
+      </c>
+      <c r="G79">
+        <v>-0.0145551879955254</v>
+      </c>
+      <c r="H79">
+        <v>-0.1597130529644462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04227406443245251</v>
+        <v>-0.04204509649251719</v>
       </c>
       <c r="C80">
-        <v>-0.01494534797483149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00406506629355772</v>
+      </c>
+      <c r="D80">
+        <v>-0.02710332363418445</v>
+      </c>
+      <c r="E80">
+        <v>0.004941523959859347</v>
+      </c>
+      <c r="F80">
+        <v>-0.01358456103111665</v>
+      </c>
+      <c r="G80">
+        <v>-0.03697947639247611</v>
+      </c>
+      <c r="H80">
+        <v>-0.04135047558111467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1171058801515572</v>
+        <v>-0.120812711906127</v>
       </c>
       <c r="C81">
-        <v>-0.06666660834077692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03462668353555597</v>
+      </c>
+      <c r="D81">
+        <v>-0.02637481837062185</v>
+      </c>
+      <c r="E81">
+        <v>-0.0008605052229142011</v>
+      </c>
+      <c r="F81">
+        <v>0.02191022821268155</v>
+      </c>
+      <c r="G81">
+        <v>-0.04543650791582459</v>
+      </c>
+      <c r="H81">
+        <v>-0.1852944060581935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1253428969862405</v>
+        <v>-0.1310486029187083</v>
       </c>
       <c r="C82">
-        <v>-0.07698049679140885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04676980453555912</v>
+      </c>
+      <c r="D82">
+        <v>-0.02922009286890215</v>
+      </c>
+      <c r="E82">
+        <v>0.01599186486299631</v>
+      </c>
+      <c r="F82">
+        <v>0.05367476404464525</v>
+      </c>
+      <c r="G82">
+        <v>-0.04559014207068128</v>
+      </c>
+      <c r="H82">
+        <v>-0.1790208008921756</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0767546360253841</v>
+        <v>-0.0800721900198931</v>
       </c>
       <c r="C83">
-        <v>-0.003200514274815399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01601378116904845</v>
+      </c>
+      <c r="D83">
+        <v>-0.03865552011448658</v>
+      </c>
+      <c r="E83">
+        <v>-0.009963679640157883</v>
+      </c>
+      <c r="F83">
+        <v>0.05122561007147185</v>
+      </c>
+      <c r="G83">
+        <v>-0.08211724874457352</v>
+      </c>
+      <c r="H83">
+        <v>0.05159557008841427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02693082934278998</v>
+        <v>-0.03961057228482285</v>
       </c>
       <c r="C84">
-        <v>-0.02272568636546578</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01891556861258519</v>
+      </c>
+      <c r="D84">
+        <v>-0.0376150450085986</v>
+      </c>
+      <c r="E84">
+        <v>-0.02306062799249954</v>
+      </c>
+      <c r="F84">
+        <v>-0.04762870318077258</v>
+      </c>
+      <c r="G84">
+        <v>-0.0608443287541458</v>
+      </c>
+      <c r="H84">
+        <v>-0.02045235426740521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1200183827067636</v>
+        <v>-0.1205505090323886</v>
       </c>
       <c r="C85">
-        <v>-0.05934502706829994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02673311566199433</v>
+      </c>
+      <c r="D85">
+        <v>-0.02798656829718057</v>
+      </c>
+      <c r="E85">
+        <v>-0.003245939122463503</v>
+      </c>
+      <c r="F85">
+        <v>0.05212690000176996</v>
+      </c>
+      <c r="G85">
+        <v>-0.01371378846719236</v>
+      </c>
+      <c r="H85">
+        <v>-0.1571131271726953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04998017748742247</v>
+        <v>-0.0532312092169572</v>
       </c>
       <c r="C86">
-        <v>-0.01928340405071973</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006701449025657692</v>
+      </c>
+      <c r="D86">
+        <v>-0.02422631871355033</v>
+      </c>
+      <c r="E86">
+        <v>-0.05529366760121314</v>
+      </c>
+      <c r="F86">
+        <v>0.02572246337365034</v>
+      </c>
+      <c r="G86">
+        <v>-0.006588527622759056</v>
+      </c>
+      <c r="H86">
+        <v>-0.01418678824764607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.120316233649325</v>
+        <v>-0.1210691554869374</v>
       </c>
       <c r="C87">
-        <v>-0.07524673019161121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03773765620757677</v>
+      </c>
+      <c r="D87">
+        <v>-0.07257738172678685</v>
+      </c>
+      <c r="E87">
+        <v>-0.01601184392763701</v>
+      </c>
+      <c r="F87">
+        <v>0.01106139614327478</v>
+      </c>
+      <c r="G87">
+        <v>0.1068504569473347</v>
+      </c>
+      <c r="H87">
+        <v>0.006108983971157166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05442958529044255</v>
+        <v>-0.0592836086662876</v>
       </c>
       <c r="C88">
-        <v>-0.0288602968549173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01641356644021218</v>
+      </c>
+      <c r="D88">
+        <v>-0.02517593963536429</v>
+      </c>
+      <c r="E88">
+        <v>-0.01682604739126449</v>
+      </c>
+      <c r="F88">
+        <v>0.009166677182334382</v>
+      </c>
+      <c r="G88">
+        <v>0.01281328845907053</v>
+      </c>
+      <c r="H88">
+        <v>-0.06071840179677632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0846836153785995</v>
+        <v>-0.101629863719394</v>
       </c>
       <c r="C89">
-        <v>-0.06567396403958559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07157600597265107</v>
+      </c>
+      <c r="D89">
+        <v>0.332370939411568</v>
+      </c>
+      <c r="E89">
+        <v>-0.07641949286947419</v>
+      </c>
+      <c r="F89">
+        <v>0.08164918258126246</v>
+      </c>
+      <c r="G89">
+        <v>-0.02368998218930733</v>
+      </c>
+      <c r="H89">
+        <v>0.002413800834036887</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07218455423787933</v>
+        <v>-0.08398156353005523</v>
       </c>
       <c r="C90">
-        <v>-0.05701609625962777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06083156792497118</v>
+      </c>
+      <c r="D90">
+        <v>0.3043808321553798</v>
+      </c>
+      <c r="E90">
+        <v>-0.06296396778065665</v>
+      </c>
+      <c r="F90">
+        <v>0.00955652719244884</v>
+      </c>
+      <c r="G90">
+        <v>-0.005604606265972293</v>
+      </c>
+      <c r="H90">
+        <v>-0.01416899899631466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08199622218996147</v>
+        <v>-0.08852640012956672</v>
       </c>
       <c r="C91">
-        <v>-0.05675893137453017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03452246445751278</v>
+      </c>
+      <c r="D91">
+        <v>-0.030593651856271</v>
+      </c>
+      <c r="E91">
+        <v>-0.01307676967616146</v>
+      </c>
+      <c r="F91">
+        <v>0.005938803045597728</v>
+      </c>
+      <c r="G91">
+        <v>-0.04704335767897677</v>
+      </c>
+      <c r="H91">
+        <v>-0.07259057719462553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07980601748415095</v>
+        <v>-0.09205623310561405</v>
       </c>
       <c r="C92">
-        <v>-0.0743057670332344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.07725604314883837</v>
+      </c>
+      <c r="D92">
+        <v>0.3424526423072639</v>
+      </c>
+      <c r="E92">
+        <v>-0.05490320873068451</v>
+      </c>
+      <c r="F92">
+        <v>0.03931942773350691</v>
+      </c>
+      <c r="G92">
+        <v>0.004115596837906143</v>
+      </c>
+      <c r="H92">
+        <v>-0.0108054013772308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06773774919869316</v>
+        <v>-0.08319869996031039</v>
       </c>
       <c r="C93">
-        <v>-0.05986071770580136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06658462895963504</v>
+      </c>
+      <c r="D93">
+        <v>0.3061620668484942</v>
+      </c>
+      <c r="E93">
+        <v>-0.03703746622991445</v>
+      </c>
+      <c r="F93">
+        <v>0.0497206615668161</v>
+      </c>
+      <c r="G93">
+        <v>0.005262649747810056</v>
+      </c>
+      <c r="H93">
+        <v>0.003549049528778444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1298006800472317</v>
+        <v>-0.1290727837604333</v>
       </c>
       <c r="C94">
-        <v>-0.0651785215275259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02701603331226689</v>
+      </c>
+      <c r="D94">
+        <v>-0.04745544803723632</v>
+      </c>
+      <c r="E94">
+        <v>0.02047679565271402</v>
+      </c>
+      <c r="F94">
+        <v>0.02253510421568885</v>
+      </c>
+      <c r="G94">
+        <v>-0.03939718231954718</v>
+      </c>
+      <c r="H94">
+        <v>-0.0998981912851563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1176466547824291</v>
+        <v>-0.1254574265224537</v>
       </c>
       <c r="C95">
-        <v>-0.04134210877837734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.0111716325005724</v>
+      </c>
+      <c r="D95">
+        <v>-0.05859904936320071</v>
+      </c>
+      <c r="E95">
+        <v>0.007204995391429591</v>
+      </c>
+      <c r="F95">
+        <v>0.03893374685736171</v>
+      </c>
+      <c r="G95">
+        <v>-0.01001483039429492</v>
+      </c>
+      <c r="H95">
+        <v>0.01822019591891831</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2042594565897086</v>
+        <v>-0.2155074627948306</v>
       </c>
       <c r="C97">
-        <v>-0.05099274072921644</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009925415899344973</v>
+      </c>
+      <c r="D97">
+        <v>0.07363103493224347</v>
+      </c>
+      <c r="E97">
+        <v>0.1510605763147434</v>
+      </c>
+      <c r="F97">
+        <v>-0.9010846338630629</v>
+      </c>
+      <c r="G97">
+        <v>0.1469630639498156</v>
+      </c>
+      <c r="H97">
+        <v>0.01193208982213958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2453425510795577</v>
+        <v>-0.2717317213998586</v>
       </c>
       <c r="C98">
-        <v>-0.09231901836996118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04068215076802825</v>
+      </c>
+      <c r="D98">
+        <v>-0.06350521569851411</v>
+      </c>
+      <c r="E98">
+        <v>0.1603622381503945</v>
+      </c>
+      <c r="F98">
+        <v>0.04931131169578901</v>
+      </c>
+      <c r="G98">
+        <v>-0.2855442079104392</v>
+      </c>
+      <c r="H98">
+        <v>0.2143135820602141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4793101861621448</v>
+        <v>-0.2891267491165385</v>
       </c>
       <c r="C99">
-        <v>0.8645112783023167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9398226182663261</v>
+      </c>
+      <c r="D99">
+        <v>0.1029943405837903</v>
+      </c>
+      <c r="E99">
+        <v>-0.04325454553437098</v>
+      </c>
+      <c r="F99">
+        <v>0.04824795014822515</v>
+      </c>
+      <c r="G99">
+        <v>-0.01585504016587594</v>
+      </c>
+      <c r="H99">
+        <v>-0.05286028305004026</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04001314852898258</v>
+        <v>-0.04690065937156425</v>
       </c>
       <c r="C101">
-        <v>-0.03021442057479866</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02296514341720034</v>
+      </c>
+      <c r="D101">
+        <v>-0.007809178095287537</v>
+      </c>
+      <c r="E101">
+        <v>-0.04402559892923498</v>
+      </c>
+      <c r="F101">
+        <v>0.009072200558877103</v>
+      </c>
+      <c r="G101">
+        <v>-0.003740274798419972</v>
+      </c>
+      <c r="H101">
+        <v>-0.0906582964214976</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
